--- a/Data/Processed/Angiosperms/missing_powo_ipni/Monimiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Monimiaceae.xlsx
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 27(5): 658. 1900 [23 Feb 1900] </t>
+          <t>Bot. Jahrb. Syst. 27(5): 658. 1900 [23 Feb 1900]</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adansonia sér. 3, 45(6): 86. 2023 [13 Mar 2023] </t>
+          <t>Adansonia sér. 3, 45(6): 86. 2023 [13 Mar 2023]</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 585. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 585. 1913</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 586. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 586. 1913</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 68, pl. 21. 1891 </t>
+          <t>Vellosia ed. 2, 1: 68, pl. 21. 1891</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 2: 154. 1921 </t>
+          <t>Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 2: 154. 1921</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 28(5): 675. 1901 [11 Jan 1901] </t>
+          <t>Bot. Jahrb. Syst. 28(5): 675. 1901 [11 Jan 1901]</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 1: 155. 1905 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 1: 155. 1905</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 7: 149, fig. 17, 18c. 1991 </t>
+          <t>Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 7: 149, fig. 17, 18c. 1991</t>
         </is>
       </c>
       <c r="J64" t="b">
